--- a/Test Cases/US-2.1_Accountant_Ledger functionality_TCs.xlsx
+++ b/Test Cases/US-2.1_Accountant_Ledger functionality_TCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Authoring TC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{F62B8C48-A03A-439B-B17E-21C83F03E3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F9F8A66-6A4D-4A1C-9F71-66F7A7EF8A70}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{F62B8C48-A03A-439B-B17E-21C83F03E3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4542AAD-9234-49CE-8E49-D5527862185E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
   <si>
     <t>Subject</t>
   </si>
@@ -130,19 +130,10 @@
     <t>It should be displayed and should be as per parameter.</t>
   </si>
   <si>
-    <t>Validate date field .</t>
-  </si>
-  <si>
     <t>All fields related to that should be displayed.</t>
   </si>
   <si>
     <t>Validate description field.</t>
-  </si>
-  <si>
-    <t>Validate debit amount field.</t>
-  </si>
-  <si>
-    <t>Validate credit amount field.</t>
   </si>
   <si>
     <t>Validate balance field.</t>
@@ -262,6 +253,27 @@
   </si>
   <si>
     <t>Accounting system -Test Sprint 1/US2.1/Account enteries on Accountant dashboard</t>
+  </si>
+  <si>
+    <t>Validate transaction date field .</t>
+  </si>
+  <si>
+    <t>Validate transaction type field.</t>
+  </si>
+  <si>
+    <t>Validate amount field.</t>
+  </si>
+  <si>
+    <t>Validate entryID field.</t>
+  </si>
+  <si>
+    <t>Validate customerID field.</t>
+  </si>
+  <si>
+    <t>Step 12</t>
+  </si>
+  <si>
+    <t>Step 13</t>
   </si>
 </sst>
 </file>
@@ -652,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D137F-15F3-4AF5-93A6-EE3F3F6817CE}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +761,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -774,10 +786,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="145" x14ac:dyDescent="0.35">
@@ -785,10 +797,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -839,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -850,10 +862,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -864,10 +876,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -878,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>29</v>
@@ -892,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>29</v>
@@ -906,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>29</v>
@@ -920,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>29</v>
@@ -934,30 +946,24 @@
         <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -965,27 +971,33 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -993,13 +1005,13 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1007,13 +1019,13 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1021,13 +1033,13 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1035,33 +1047,27 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1069,27 +1075,33 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1097,13 +1109,13 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1111,13 +1123,13 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1125,13 +1137,13 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1139,13 +1151,13 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1153,13 +1165,13 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1167,10 +1179,10 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>29</v>
@@ -1181,33 +1193,27 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>55</v>
-      </c>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1215,27 +1221,33 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1243,13 +1255,13 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1257,13 +1269,13 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1271,13 +1283,13 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1285,89 +1297,89 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1375,13 +1387,13 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1389,41 +1401,41 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1431,13 +1443,13 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1445,13 +1457,83 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>65</v>
+      <c r="E55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
